--- a/Financial_proyect/Data/DATA.xlsx
+++ b/Financial_proyect/Data/DATA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alvaro\OneDrive\Documentos\Primer proyecto\codigo\new-proyect\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alvaro\OneDrive\Documentos\Primer proyecto\codigo\Financial_proyect\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -53,7 +53,7 @@
     <t>ORO</t>
   </si>
   <si>
-    <t xml:space="preserve">PETROLEO </t>
+    <t>PETROLEO</t>
   </si>
 </sst>
 </file>
@@ -387,15 +387,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J261"/>
+  <dimension ref="A1:K261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,7 +427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44840</v>
       </c>
@@ -459,7 +459,7 @@
         <v>1710.85</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44841</v>
       </c>
@@ -490,8 +490,9 @@
       <c r="J3" s="4">
         <v>1694.52</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44844</v>
       </c>
@@ -523,7 +524,7 @@
         <v>1667.96</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44845</v>
       </c>
@@ -555,7 +556,7 @@
         <v>1665.31</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44846</v>
       </c>
@@ -587,7 +588,7 @@
         <v>1672.51</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44847</v>
       </c>
@@ -619,7 +620,7 @@
         <v>1665.8</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44848</v>
       </c>
@@ -651,7 +652,7 @@
         <v>1641.76</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44851</v>
       </c>
@@ -683,7 +684,7 @@
         <v>1649.94</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44852</v>
       </c>
@@ -715,7 +716,7 @@
         <v>1651.83</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44853</v>
       </c>
@@ -747,7 +748,7 @@
         <v>1628.49</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44854</v>
       </c>
@@ -779,7 +780,7 @@
         <v>1627.66</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44855</v>
       </c>
@@ -811,7 +812,7 @@
         <v>1656.66</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44858</v>
       </c>
@@ -843,7 +844,7 @@
         <v>1648.6</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44859</v>
       </c>
@@ -875,7 +876,7 @@
         <v>1652.52</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44860</v>
       </c>
